--- a/서울시립미술관 전시정보 (한국어+영어+중국어).xlsx
+++ b/서울시립미술관 전시정보 (한국어+영어+중국어).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26565" windowHeight="10200"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="(데이터전처리)서울시립미술관 전시정보 (국문) - 시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="(데이터전처리)서울시립미술관 전시정보 (국문) - 시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -22,12 +30,6 @@
     <t>전시회명(중국어)</t>
   </si>
   <si>
-    <t>x좌표</t>
-  </si>
-  <si>
-    <t>y좌표</t>
-  </si>
-  <si>
     <t>《그림이라는 별세계: 이건희컬렉션과 함께》</t>
   </si>
   <si>
@@ -134,27 +136,85 @@
   </si>
   <si>
     <t>常设展《徐道濩与孩子们：艺术乐园》》</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>좌표</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>좌표</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,39 +222,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -384,20 +450,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,218 +478,220 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E2" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E2" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E3" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E4" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E4" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E5" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E5" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E6" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E6" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E7" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E7" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E8" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E8" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E9" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E9" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E10" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E10" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E11" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E11" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="1">
+        <v>126.9738</v>
+      </c>
+      <c r="E12" s="1">
+        <v>37.564239999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="1">
-        <v>126.9738</v>
-      </c>
-      <c r="E12" s="1">
-        <v>37.56424</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" s="1">
         <v>126.9738</v>
       </c>
       <c r="E13" s="1">
-        <v>37.56424</v>
+        <v>37.564239999999998</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/서울시립미술관 전시정보 (한국어+영어+중국어).xlsx
+++ b/서울시립미술관 전시정보 (한국어+영어+중국어).xlsx
@@ -21,15 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>전시회명(한국어)</t>
-  </si>
-  <si>
-    <t>전시회명(영어)</t>
-  </si>
-  <si>
-    <t>전시회명(중국어)</t>
-  </si>
-  <si>
     <t>《그림이라는 별세계: 이건희컬렉션과 함께》</t>
   </si>
   <si>
@@ -168,6 +159,141 @@
         <scheme val="minor"/>
       </rPr>
       <t>좌표</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>영어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>명칭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>중국어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -187,12 +313,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -237,11 +365,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -463,37 +592,37 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>126.9738</v>
@@ -504,13 +633,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>126.9738</v>
@@ -521,13 +650,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>126.9738</v>
@@ -538,13 +667,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>126.9738</v>
@@ -555,13 +684,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>126.9738</v>
@@ -572,13 +701,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>126.9738</v>
@@ -589,13 +718,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>126.9738</v>
@@ -606,13 +735,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>126.9738</v>
@@ -623,13 +752,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>126.9738</v>
@@ -640,13 +769,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>126.9738</v>
@@ -657,13 +786,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1">
         <v>126.9738</v>
@@ -674,13 +803,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1">
         <v>126.9738</v>
